--- a/Dados/turismo_int_parte.xlsx
+++ b/Dados/turismo_int_parte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pos Mackenzie\Componentes Curriculares\Paradigmas Linguagem Programacao\Aprofundamento 02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pos Mackenzie\Componentes Curriculares\Paradigmas Linguagem Programacao\Aprofundamento 02\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BC66E9-2AE3-4405-81DD-B6E0643BC3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5A5D4-EA7B-430D-B79F-393227D48406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
